--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarimAhmed\Music\New0\New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarimAhmed\Music\New0\New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FBA0DD-D326-406F-B473-D650BA75AEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B46EB8-0CA7-46CA-8A78-A41F7A84F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2235" windowWidth="19575" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="0" windowWidth="20970" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="153">
   <si>
     <t>المنطقة</t>
   </si>
@@ -273,21 +273,12 @@
     <t>أبو عريش</t>
   </si>
   <si>
-    <t>الميناء</t>
-  </si>
-  <si>
-    <t>الكواملة الورود</t>
-  </si>
-  <si>
     <t>العارضة</t>
   </si>
   <si>
     <t>الزرقاء</t>
   </si>
   <si>
-    <t>بيشة RS</t>
-  </si>
-  <si>
     <t>مكة Makkah</t>
   </si>
   <si>
@@ -384,20 +375,126 @@
     <t>درب20</t>
   </si>
   <si>
-    <t>العوالي5</t>
-  </si>
-  <si>
     <t>شرورة sharura</t>
+  </si>
+  <si>
+    <t>نوع الوقود</t>
+  </si>
+  <si>
+    <t>91 - 95 -  ديزل</t>
+  </si>
+  <si>
+    <t>91 - 95</t>
+  </si>
+  <si>
+    <t>الكواملة</t>
+  </si>
+  <si>
+    <t>نواره الورود</t>
+  </si>
+  <si>
+    <t>ب 8 الميناء</t>
+  </si>
+  <si>
+    <t>الطاهرية</t>
+  </si>
+  <si>
+    <t>91 -  ديزل</t>
+  </si>
+  <si>
+    <t>الشرقية Eastern</t>
+  </si>
+  <si>
+    <t>الاحساء</t>
+  </si>
+  <si>
+    <t>طلعة 15 ابقيق</t>
+  </si>
+  <si>
+    <t>غونان ظهران</t>
+  </si>
+  <si>
+    <t>فيولكس الخبر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اورنج ظهران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اورنج الشدي </t>
+  </si>
+  <si>
+    <t>اورنج خضرية1 الدمام</t>
+  </si>
+  <si>
+    <t>اورنج خضرية2 الدمام</t>
+  </si>
+  <si>
+    <t>اورنج الحمادي الدمام</t>
+  </si>
+  <si>
+    <t>اورنج أبو حدرية الدمام</t>
+  </si>
+  <si>
+    <t>اورنج المشرقين الظهران</t>
+  </si>
+  <si>
+    <t>اورنج جبيل 2</t>
+  </si>
+  <si>
+    <t>اورنج عسكر صلاصل</t>
+  </si>
+  <si>
+    <t>اورنج صلاصل</t>
+  </si>
+  <si>
+    <t>اورنج سبهات</t>
+  </si>
+  <si>
+    <t>اورنج الغدير</t>
+  </si>
+  <si>
+    <t>اورنج البرموك الخبر</t>
+  </si>
+  <si>
+    <t>الحقباني ابقيق</t>
+  </si>
+  <si>
+    <t>اورنج  الخبر</t>
+  </si>
+  <si>
+    <t>اورنج  اجياد الخبر</t>
+  </si>
+  <si>
+    <t>اورنج المباركية الدمام</t>
+  </si>
+  <si>
+    <t>اورنج جبيل 1</t>
+  </si>
+  <si>
+    <t>اورانج الحاسر الخبر</t>
+  </si>
+  <si>
+    <t>اورنج  النهدي الخبر</t>
+  </si>
+  <si>
+    <t>اورناج الخوارزمي  الدمام</t>
+  </si>
+  <si>
+    <t>العرجاني حرض</t>
+  </si>
+  <si>
+    <t>الدمام Dammam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.###################"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,16 +510,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -430,11 +555,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -442,21 +580,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000000000000"/>
+      <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000000000000"/>
+      <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -500,13 +660,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}" name="الجدول1" displayName="الجدول1" ref="A1:D108" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D108" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5ADB266A-BA4F-49AB-A412-2BE0672A1DEB}" name="المنطقة" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DC00D0C0-6047-41D3-9B51-411278D405CA}" name="الموقع" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}" name="الجدول1" displayName="الجدول1" ref="A1:E134" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E134" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="الشرقية Eastern"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5ADB266A-BA4F-49AB-A412-2BE0672A1DEB}" name="المنطقة" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DC00D0C0-6047-41D3-9B51-411278D405CA}" name="الموقع" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{94E5A0D5-9814-4234-BA7B-3D5A14A3E88C}" name="خط العرض" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{94C0F639-1F9A-4DF8-B984-A75F474B3618}" name="خط الطول" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{826168CB-CEA7-4DC5-AAC2-381705B46ED7}" name="نوع الوقود" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -775,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,9 +954,12 @@
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,1500 +972,2026 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>24.7136</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>46.6753</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>24.673999999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>46.721899999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>24.692</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>46.721899999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>24.723500000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>46.678400000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>24.751200000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>46.712200000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>24.755600000000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>46.715400000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>24.762699999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>46.710099999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>24.7181</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>46.623100000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>24.705400000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>46.724699999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>24.751200000000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>46.740099999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>24.688600000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>46.717599999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>24.7639</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>46.7151</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>24.6905</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>46.749000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>24.738299999999999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>46.691600000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>22.4255</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>55.960799999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>26.306699999999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>43.972999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>24.7836</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>46.8416</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>24.789000000000001</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>46.811900000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>24.786000000000001</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>46.795499999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>24.8005</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>46.787799999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>24.7865</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>46.773099999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>24.7865</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>46.770299999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>24.704799999999999</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>46.693600000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>24.7136</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>46.674900000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>24.710100000000001</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>46.676299999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>24.708200000000001</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>46.6768</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>24.726600000000001</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>46.6755</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>24.710999999999999</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>46.680999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>24.7165</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>46.676900000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>24.7057</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>46.6815</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>26.212499999999999</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <v>50.215699999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>26.205500000000001</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>50.197099999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <v>26.1982</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="5">
         <v>50.215499999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>26.211099999999998</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <v>50.1845</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <v>26.211600000000001</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <v>50.192100000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <v>26.213000000000001</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>50.181800000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>26.213799999999999</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="5">
         <v>50.186399999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <v>26.215499999999999</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="5">
         <v>50.183599999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <v>26.210999999999999</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>50.179699999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <v>26.21</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="5">
         <v>50.182499999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>26.211500000000001</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="5">
         <v>50.181399999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
         <v>26.209199999999999</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>50.182000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <v>26.209900000000001</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>50.181899999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
         <v>26.208100000000002</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>50.177599999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <v>26.2135</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>50.179000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <v>26.2104</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <v>50.178199999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <v>26.207999999999998</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>50.1815</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
         <v>26.207799999999999</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="5">
         <v>50.179499999999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>26.209</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="5">
         <v>50.1755</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="5">
+        <v>25.342620398111801</v>
+      </c>
+      <c r="D52" s="5">
+        <v>49.465468793878799</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="5">
+        <v>26.036067640763498</v>
+      </c>
+      <c r="D53" s="5">
+        <v>49.768596814144999</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="5">
+        <v>26.131596431178199</v>
+      </c>
+      <c r="D54" s="5">
+        <v>49.880764729487602</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="5">
+        <v>26.199341434731199</v>
+      </c>
+      <c r="D55" s="5">
+        <v>50.162230409951</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C78" s="5">
         <v>17.567295430586199</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D78" s="5">
         <v>44.333701516532798</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="E78" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C79" s="5">
         <v>17.561139703490699</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D79" s="5">
         <v>43.981521050262401</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="E79" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C80" s="5">
         <v>17.553139153643599</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D80" s="5">
         <v>44.2256566772461</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="E80" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C81" s="5">
         <v>17.838494893482899</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D81" s="5">
         <v>44.010650203704799</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="E81" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C82" s="5">
         <v>17.534059078591799</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D82" s="5">
         <v>44.206457084655703</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="E82" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C83" s="5">
         <v>17.5196774723149</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D83" s="5">
         <v>44.192838660049397</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="E83" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C84" s="5">
         <v>17.595454554957001</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D84" s="5">
         <v>44.377433703041</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="E84" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C85" s="5">
         <v>17.5326693087077</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D85" s="5">
         <v>44.201037550926202</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="E85" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C86" s="5">
         <v>17.634646630122401</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D86" s="5">
         <v>44.450847872352597</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="E86" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C87" s="5">
         <v>17.6047386418619</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D87" s="5">
         <v>44.232580466270399</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="E87" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="5">
+        <v>17.5036441984902</v>
+      </c>
+      <c r="D88" s="5">
+        <v>47.099751312827998</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="5">
+        <v>18.22</v>
+      </c>
+      <c r="D89" s="5">
+        <v>42.500999999999998</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="5">
+        <v>18.224</v>
+      </c>
+      <c r="D90" s="5">
+        <v>42.502000000000002</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="5">
+        <v>18.22</v>
+      </c>
+      <c r="D91" s="5">
+        <v>42.505000000000003</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="5">
+        <v>18.225000000000001</v>
+      </c>
+      <c r="D92" s="5">
+        <v>42.508000000000003</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="5">
+        <v>18.23</v>
+      </c>
+      <c r="D93" s="5">
+        <v>42.51</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" s="5">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="D94" s="5">
+        <v>42.515000000000001</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="5">
+        <v>18.25</v>
+      </c>
+      <c r="D95" s="5">
+        <v>42.52</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="5">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="D96" s="5">
+        <v>42.524999999999999</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="5">
+        <v>18.265000000000001</v>
+      </c>
+      <c r="D97" s="5">
+        <v>42.53</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="5">
+        <v>18.274999999999999</v>
+      </c>
+      <c r="D98" s="5">
+        <v>42.534999999999997</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="5">
+        <v>18.28</v>
+      </c>
+      <c r="D99" s="5">
+        <v>42.54</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="5">
+        <v>18.285</v>
+      </c>
+      <c r="D100" s="5">
+        <v>42.545000000000002</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" s="5">
+        <v>16.952081167218999</v>
+      </c>
+      <c r="D101" s="5">
+        <v>42.800970943286202</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="5">
+        <v>16.890027499469401</v>
+      </c>
+      <c r="D102" s="5">
+        <v>42.541133636773502</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="5">
+        <v>16.971723877020398</v>
+      </c>
+      <c r="D103" s="5">
+        <v>42.849782989719699</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="3">
-        <v>17.5036441984902</v>
-      </c>
-      <c r="D62" s="3">
-        <v>47.099751312827998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="3">
-        <v>18.22</v>
-      </c>
-      <c r="D63" s="3">
-        <v>42.500999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="3">
-        <v>18.224</v>
-      </c>
-      <c r="D64" s="3">
-        <v>42.502000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="3">
-        <v>18.22</v>
-      </c>
-      <c r="D65" s="3">
-        <v>42.505000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="3">
-        <v>18.225000000000001</v>
-      </c>
-      <c r="D66" s="3">
-        <v>42.508000000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="3">
-        <v>18.23</v>
-      </c>
-      <c r="D67" s="3">
-        <v>42.51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="3">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="D68" s="3">
-        <v>42.515000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="3">
-        <v>18.25</v>
-      </c>
-      <c r="D69" s="3">
-        <v>42.52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="3">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="D70" s="3">
-        <v>42.524999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="3">
-        <v>18.265000000000001</v>
-      </c>
-      <c r="D71" s="3">
-        <v>42.53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="3">
-        <v>18.274999999999999</v>
-      </c>
-      <c r="D72" s="3">
-        <v>42.534999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="3">
-        <v>18.28</v>
-      </c>
-      <c r="D73" s="3">
-        <v>42.54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="3">
-        <v>18.285</v>
-      </c>
-      <c r="D74" s="3">
-        <v>42.545000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="C104" s="5">
+        <v>16.959836600331599</v>
+      </c>
+      <c r="D104" s="5">
+        <v>42.677859006181201</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="3">
-        <v>17.562000000000001</v>
-      </c>
-      <c r="D75" s="3">
-        <v>42.552</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B105" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" s="5">
+        <v>17.038917164153698</v>
+      </c>
+      <c r="D105" s="5">
+        <v>43.0436296115831</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="3">
-        <v>17.57</v>
-      </c>
-      <c r="D76" s="3">
-        <v>42.555</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="5">
+        <v>17.1337033820332</v>
+      </c>
+      <c r="D106" s="5">
+        <v>42.787840455075496</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="3">
-        <v>17.574999999999999</v>
-      </c>
-      <c r="D77" s="3">
-        <v>42.56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" s="5">
+        <v>17.072751397596299</v>
+      </c>
+      <c r="D107" s="5">
+        <v>42.746295295033697</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="3">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="D78" s="3">
-        <v>42.564999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="3">
-        <v>17.585000000000001</v>
-      </c>
-      <c r="D79" s="3">
-        <v>42.57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="C108" s="5">
+        <v>21.355378999999999</v>
+      </c>
+      <c r="D108" s="5">
+        <v>39.890714000000003</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="3">
-        <v>18.29</v>
-      </c>
-      <c r="D80" s="3">
-        <v>42.575000000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="C109" s="5">
+        <v>21.361129999999999</v>
+      </c>
+      <c r="D109" s="5">
+        <v>39.899628999999997</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C110" s="5">
+        <v>21.465409000000001</v>
+      </c>
+      <c r="D110" s="5">
+        <v>39.901463999999997</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="3">
-        <v>21.355378999999999</v>
-      </c>
-      <c r="D81" s="3">
-        <v>39.890714000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="C111" s="5">
+        <v>21.465647000000001</v>
+      </c>
+      <c r="D111" s="5">
+        <v>39.899751000000002</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="3">
-        <v>21.355375558999999</v>
-      </c>
-      <c r="D82" s="3">
-        <v>39.890715554000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    </row>
+    <row r="112" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="3">
-        <v>21.361129999999999</v>
-      </c>
-      <c r="D83" s="3">
-        <v>39.899628999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="C112" s="5">
+        <v>21.317447000000001</v>
+      </c>
+      <c r="D112" s="5">
+        <v>39.690340999999997</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="3">
-        <v>21.465409000000001</v>
-      </c>
-      <c r="D84" s="3">
-        <v>39.901463999999997</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="C113" s="5">
+        <v>21.455000999999999</v>
+      </c>
+      <c r="D113" s="5">
+        <v>39.874222000000003</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="3">
-        <v>21.465647000000001</v>
-      </c>
-      <c r="D85" s="3">
-        <v>39.899751000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="C114" s="5">
+        <v>21.402951000000002</v>
+      </c>
+      <c r="D114" s="5">
+        <v>39.792341</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="3">
-        <v>21.317447000000001</v>
-      </c>
-      <c r="D86" s="3">
-        <v>39.690340999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="C115" s="5">
+        <v>21.382835</v>
+      </c>
+      <c r="D115" s="5">
+        <v>39.787329</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="3">
-        <v>21.455000999999999</v>
-      </c>
-      <c r="D87" s="3">
-        <v>39.874222000000003</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="C116" s="5">
+        <v>21.477231</v>
+      </c>
+      <c r="D116" s="5">
+        <v>39.915444000000001</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="3">
-        <v>21.402951000000002</v>
-      </c>
-      <c r="D88" s="3">
-        <v>39.792341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="C117" s="5">
+        <v>21.370353999999999</v>
+      </c>
+      <c r="D117" s="5">
+        <v>39.797694</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="3">
-        <v>21.382835</v>
-      </c>
-      <c r="D89" s="3">
-        <v>39.787329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="C118" s="5">
+        <v>21.470445999999999</v>
+      </c>
+      <c r="D118" s="5">
+        <v>39.928963000000003</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="3">
-        <v>21.477231</v>
-      </c>
-      <c r="D90" s="3">
-        <v>39.915444000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="3">
-        <v>21.370353999999999</v>
-      </c>
-      <c r="D91" s="3">
-        <v>39.797694</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="C119" s="5">
+        <v>21.541</v>
+      </c>
+      <c r="D119" s="5">
+        <v>39.176000000000002</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="3">
-        <v>21.470445999999999</v>
-      </c>
-      <c r="D92" s="3">
-        <v>39.928963000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="C120" s="5">
+        <v>21.53</v>
+      </c>
+      <c r="D120" s="5">
+        <v>39.174999999999997</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C121" s="5">
+        <v>21.521999999999998</v>
+      </c>
+      <c r="D121" s="5">
+        <v>39.174999999999997</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="3">
-        <v>21.541</v>
-      </c>
-      <c r="D93" s="3">
-        <v>39.176000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="C122" s="5">
+        <v>21.515000000000001</v>
+      </c>
+      <c r="D122" s="5">
+        <v>39.18</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="3">
-        <v>21.53</v>
-      </c>
-      <c r="D94" s="3">
-        <v>39.174999999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="C123" s="5">
+        <v>21.51</v>
+      </c>
+      <c r="D123" s="5">
+        <v>39.185000000000002</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="3">
-        <v>21.521999999999998</v>
-      </c>
-      <c r="D95" s="3">
-        <v>39.174999999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="C124" s="5">
+        <v>21.504999999999999</v>
+      </c>
+      <c r="D124" s="5">
+        <v>39.19</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="3">
-        <v>21.515000000000001</v>
-      </c>
-      <c r="D96" s="3">
-        <v>39.18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="C125" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="D125" s="5">
+        <v>39.195</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="3">
-        <v>21.51</v>
-      </c>
-      <c r="D97" s="3">
-        <v>39.185000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="3">
-        <v>21.504999999999999</v>
-      </c>
-      <c r="D98" s="3">
-        <v>39.19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="C126" s="5">
+        <v>21.484999999999999</v>
+      </c>
+      <c r="D126" s="5">
+        <v>39.195</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="D99" s="3">
-        <v>39.195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="C127" s="5">
+        <v>21.48</v>
+      </c>
+      <c r="D127" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="3">
-        <v>21.484999999999999</v>
-      </c>
-      <c r="D100" s="3">
-        <v>39.195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="C128" s="5">
+        <v>20.414999999999999</v>
+      </c>
+      <c r="D128" s="5">
+        <v>41.765000000000001</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="3">
-        <v>21.48</v>
-      </c>
-      <c r="D101" s="3">
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="C129" s="5">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D129" s="5">
+        <v>41.77</v>
+      </c>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C102" s="3">
-        <v>20.414999999999999</v>
-      </c>
-      <c r="D102" s="3">
-        <v>41.765000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="C130" s="5">
+        <v>21.257999999999999</v>
+      </c>
+      <c r="D130" s="5">
+        <v>40.514000000000003</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="3">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="D103" s="3">
-        <v>41.77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="C131" s="5">
+        <v>21.265000000000001</v>
+      </c>
+      <c r="D131" s="5">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C132" s="5">
+        <v>21.274999999999999</v>
+      </c>
+      <c r="D132" s="5">
+        <v>40.524999999999999</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="3">
-        <v>21.257999999999999</v>
-      </c>
-      <c r="D104" s="3">
-        <v>40.514000000000003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="C133" s="5">
+        <v>21.28</v>
+      </c>
+      <c r="D133" s="5">
+        <v>40.53</v>
+      </c>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C105" s="3">
-        <v>21.265000000000001</v>
-      </c>
-      <c r="D105" s="3">
-        <v>40.520000000000003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106" s="3">
-        <v>21.274999999999999</v>
-      </c>
-      <c r="D106" s="3">
-        <v>40.524999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" s="3">
-        <v>21.28</v>
-      </c>
-      <c r="D107" s="3">
-        <v>40.53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="C134" s="5">
         <v>21.285</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D134" s="5">
         <v>40.534999999999997</v>
       </c>
+      <c r="E134" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarimAhmed\Music\New0\New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B46EB8-0CA7-46CA-8A78-A41F7A84F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78CB2B3-0B46-4E96-9612-C0FFA5FDD4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="0" windowWidth="20970" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10830" yWindow="0" windowWidth="18075" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="154">
   <si>
     <t>المنطقة</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>الدمام Dammam</t>
+  </si>
+  <si>
+    <t>الخبر Al Khobar</t>
   </si>
 </sst>
 </file>
@@ -661,13 +664,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}" name="الجدول1" displayName="الجدول1" ref="A1:E134" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E134" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="الشرقية Eastern"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E134" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5ADB266A-BA4F-49AB-A412-2BE0672A1DEB}" name="المنطقة" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{DC00D0C0-6047-41D3-9B51-411278D405CA}" name="الموقع" dataDxfId="3"/>
@@ -944,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +973,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -985,7 +982,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1034,7 +1031,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1047,7 @@
       <c r="E6" s="3"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1062,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1077,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1092,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1107,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1122,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1137,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1152,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1167,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1182,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1200,7 +1197,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1212,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +1227,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1242,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1260,7 +1257,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1272,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1287,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +1302,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1317,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1332,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1347,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1362,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1377,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1392,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1407,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1422,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1440,7 +1437,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1455,7 +1452,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1470,7 +1467,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -1485,7 +1482,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1497,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1512,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1530,7 +1527,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1542,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
@@ -1560,7 +1557,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1572,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,7 +1587,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
@@ -1605,7 +1602,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -1620,7 +1617,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1632,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
@@ -1650,7 +1647,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +1662,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +1677,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1692,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +1707,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1775,7 @@
     </row>
     <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>129</v>
@@ -1800,8 +1797,12 @@
       <c r="B56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="C56" s="5">
+        <v>26.19</v>
+      </c>
+      <c r="D56" s="5">
+        <v>50.16</v>
+      </c>
       <c r="E56" s="3" t="s">
         <v>118</v>
       </c>
@@ -1813,8 +1814,12 @@
       <c r="B57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="C57" s="5">
+        <v>26.335322456071999</v>
+      </c>
+      <c r="D57" s="5">
+        <v>50.131674936945998</v>
+      </c>
       <c r="E57" s="3" t="s">
         <v>118</v>
       </c>
@@ -1826,8 +1831,12 @@
       <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="C58" s="5">
+        <v>25.602790564440799</v>
+      </c>
+      <c r="D58" s="5">
+        <v>49.547784319956897</v>
+      </c>
       <c r="E58" s="3" t="s">
         <v>118</v>
       </c>
@@ -1839,8 +1848,12 @@
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="C59" s="5">
+        <v>26.4471375235075</v>
+      </c>
+      <c r="D59" s="5">
+        <v>50.044842609274198</v>
+      </c>
       <c r="E59" s="3" t="s">
         <v>118</v>
       </c>
@@ -1852,8 +1865,12 @@
       <c r="B60" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="C60" s="5">
+        <v>26.466701620873799</v>
+      </c>
+      <c r="D60" s="5">
+        <v>50.047194992073699</v>
+      </c>
       <c r="E60" s="3" t="s">
         <v>118</v>
       </c>
@@ -1865,8 +1882,12 @@
       <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="C61" s="5">
+        <v>26.3804625967581</v>
+      </c>
+      <c r="D61" s="5">
+        <v>50.025521430774802</v>
+      </c>
       <c r="E61" s="3" t="s">
         <v>118</v>
       </c>
@@ -1878,8 +1899,12 @@
       <c r="B62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="C62" s="5">
+        <v>26.705147391119301</v>
+      </c>
+      <c r="D62" s="5">
+        <v>49.760685012983899</v>
+      </c>
       <c r="E62" s="3" t="s">
         <v>118</v>
       </c>
@@ -1891,8 +1916,12 @@
       <c r="B63" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="C63" s="5">
+        <v>26.313231683210802</v>
+      </c>
+      <c r="D63" s="5">
+        <v>50.177785880437803</v>
+      </c>
       <c r="E63" s="3" t="s">
         <v>118</v>
       </c>
@@ -1904,8 +1933,12 @@
       <c r="B64" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="C64" s="5">
+        <v>26.877177620048801</v>
+      </c>
+      <c r="D64" s="5">
+        <v>49.749165063827697</v>
+      </c>
       <c r="E64" s="3" t="s">
         <v>118</v>
       </c>
@@ -1917,8 +1950,12 @@
       <c r="B65" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="C65" s="5">
+        <v>26.185119541620601</v>
+      </c>
+      <c r="D65" s="5">
+        <v>49.473600839965499</v>
+      </c>
       <c r="E65" s="3" t="s">
         <v>118</v>
       </c>
@@ -1930,8 +1967,12 @@
       <c r="B66" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="C66" s="5">
+        <v>26.493655169209202</v>
+      </c>
+      <c r="D66" s="5">
+        <v>50.036417481682697</v>
+      </c>
       <c r="E66" s="3" t="s">
         <v>118</v>
       </c>
@@ -1943,21 +1984,29 @@
       <c r="B67" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="C67" s="5">
+        <v>26.4918176252345</v>
+      </c>
+      <c r="D67" s="5">
+        <v>50.046797876137703</v>
+      </c>
       <c r="E67" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="C68" s="5">
+        <v>26.312937520241999</v>
+      </c>
+      <c r="D68" s="5">
+        <v>50.217739991060199</v>
+      </c>
       <c r="E68" s="3" t="s">
         <v>118</v>
       </c>
@@ -1969,34 +2018,46 @@
       <c r="B69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="C69" s="5">
+        <v>25.9321285210825</v>
+      </c>
+      <c r="D69" s="5">
+        <v>49.663319899325401</v>
+      </c>
       <c r="E69" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="C70" s="5">
+        <v>26.180480184114099</v>
+      </c>
+      <c r="D70" s="5">
+        <v>50.203524942734298</v>
+      </c>
       <c r="E70" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="C71" s="5">
+        <v>26.337596981683099</v>
+      </c>
+      <c r="D71" s="5">
+        <v>50.189942089372401</v>
+      </c>
       <c r="E71" s="3" t="s">
         <v>119</v>
       </c>
@@ -2008,8 +2069,12 @@
       <c r="B72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="C72" s="5">
+        <v>26.459521557363502</v>
+      </c>
+      <c r="D72" s="5">
+        <v>50.095633495783403</v>
+      </c>
       <c r="E72" s="3" t="s">
         <v>119</v>
       </c>
@@ -2021,34 +2086,46 @@
       <c r="B73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="C73" s="5">
+        <v>26.902992644222198</v>
+      </c>
+      <c r="D73" s="5">
+        <v>49.7589905148388</v>
+      </c>
       <c r="E73" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="C74" s="5">
+        <v>26.302115189759</v>
+      </c>
+      <c r="D74" s="5">
+        <v>50.210048953372599</v>
+      </c>
       <c r="E74" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="C75" s="5">
+        <v>26.174050594622098</v>
+      </c>
+      <c r="D75" s="5">
+        <v>50.157541952149998</v>
+      </c>
       <c r="E75" s="3" t="s">
         <v>119</v>
       </c>
@@ -2060,8 +2137,12 @@
       <c r="B76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="C76" s="5">
+        <v>26.418607796066301</v>
+      </c>
+      <c r="D76" s="5">
+        <v>50.029045601222599</v>
+      </c>
       <c r="E76" s="3" t="s">
         <v>119</v>
       </c>
@@ -2073,13 +2154,17 @@
       <c r="B77" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="C77" s="5">
+        <v>24.1319588698945</v>
+      </c>
+      <c r="D77" s="5">
+        <v>49.032802929426801</v>
+      </c>
       <c r="E77" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>55</v>
       </c>
@@ -2096,7 +2181,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>55</v>
       </c>
@@ -2113,7 +2198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>55</v>
       </c>
@@ -2130,7 +2215,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>55</v>
       </c>
@@ -2147,7 +2232,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>55</v>
       </c>
@@ -2164,7 +2249,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
@@ -2181,7 +2266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
@@ -2198,7 +2283,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>55</v>
       </c>
@@ -2215,7 +2300,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>55</v>
       </c>
@@ -2232,7 +2317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>55</v>
       </c>
@@ -2249,7 +2334,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>116</v>
       </c>
@@ -2264,7 +2349,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>67</v>
       </c>
@@ -2279,7 +2364,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>67</v>
       </c>
@@ -2294,7 +2379,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>67</v>
       </c>
@@ -2309,7 +2394,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>67</v>
       </c>
@@ -2324,7 +2409,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>67</v>
       </c>
@@ -2339,7 +2424,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>67</v>
       </c>
@@ -2354,7 +2439,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>67</v>
       </c>
@@ -2369,7 +2454,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>67</v>
       </c>
@@ -2384,7 +2469,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>67</v>
       </c>
@@ -2399,7 +2484,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>67</v>
       </c>
@@ -2414,7 +2499,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>67</v>
       </c>
@@ -2429,7 +2514,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>67</v>
       </c>
@@ -2444,7 +2529,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>80</v>
       </c>
@@ -2461,7 +2546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>80</v>
       </c>
@@ -2478,7 +2563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>80</v>
       </c>
@@ -2495,7 +2580,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>80</v>
       </c>
@@ -2512,7 +2597,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>80</v>
       </c>
@@ -2529,7 +2614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>80</v>
       </c>
@@ -2546,7 +2631,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>80</v>
       </c>
@@ -2563,7 +2648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>84</v>
       </c>
@@ -2580,7 +2665,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>84</v>
       </c>
@@ -2597,7 +2682,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>84</v>
       </c>
@@ -2614,7 +2699,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>84</v>
       </c>
@@ -2631,7 +2716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>84</v>
       </c>
@@ -2648,7 +2733,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>84</v>
       </c>
@@ -2665,7 +2750,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>84</v>
       </c>
@@ -2682,7 +2767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>84</v>
       </c>
@@ -2699,7 +2784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>84</v>
       </c>
@@ -2716,7 +2801,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>84</v>
       </c>
@@ -2733,7 +2818,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>84</v>
       </c>
@@ -2750,7 +2835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -2765,7 +2850,7 @@
       </c>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -2780,7 +2865,7 @@
       </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>96</v>
       </c>
@@ -2795,7 +2880,7 @@
       </c>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>96</v>
       </c>
@@ -2810,7 +2895,7 @@
       </c>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>96</v>
       </c>
@@ -2825,7 +2910,7 @@
       </c>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>96</v>
       </c>
@@ -2840,7 +2925,7 @@
       </c>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>96</v>
       </c>
@@ -2855,7 +2940,7 @@
       </c>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>104</v>
       </c>
@@ -2870,7 +2955,7 @@
       </c>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>104</v>
       </c>
@@ -2885,7 +2970,7 @@
       </c>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>107</v>
       </c>
@@ -2900,7 +2985,7 @@
       </c>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>107</v>
       </c>
@@ -2915,7 +3000,7 @@
       </c>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>110</v>
       </c>
@@ -2930,7 +3015,7 @@
       </c>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>110</v>
       </c>
@@ -2945,7 +3030,7 @@
       </c>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>110</v>
       </c>
@@ -2960,7 +3045,7 @@
       </c>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>110</v>
       </c>
@@ -2975,7 +3060,7 @@
       </c>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>110</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarimAhmed\Music\New0\New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78CB2B3-0B46-4E96-9612-C0FFA5FDD4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BCA91-2D48-413C-9883-D65D6A18366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="0" windowWidth="18075" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="156">
   <si>
     <t>المنطقة</t>
   </si>
@@ -487,6 +487,12 @@
   </si>
   <si>
     <t>الخبر Al Khobar</t>
+  </si>
+  <si>
+    <t>نجران العريسة</t>
+  </si>
+  <si>
+    <t>معلومات إضافية</t>
   </si>
 </sst>
 </file>
@@ -494,8 +500,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
-    <numFmt numFmtId="174" formatCode="0.###################"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.###################"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -575,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -589,21 +595,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -620,6 +627,14 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000000000000000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000000000000000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -663,14 +678,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}" name="الجدول1" displayName="الجدول1" ref="A1:E134" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E134" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5ADB266A-BA4F-49AB-A412-2BE0672A1DEB}" name="المنطقة" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{DC00D0C0-6047-41D3-9B51-411278D405CA}" name="الموقع" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{94E5A0D5-9814-4234-BA7B-3D5A14A3E88C}" name="خط العرض" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{94C0F639-1F9A-4DF8-B984-A75F474B3618}" name="خط الطول" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{826168CB-CEA7-4DC5-AAC2-381705B46ED7}" name="نوع الوقود" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}" name="الجدول1" displayName="الجدول1" ref="A1:F134" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F134" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5ADB266A-BA4F-49AB-A412-2BE0672A1DEB}" name="المنطقة" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DC00D0C0-6047-41D3-9B51-411278D405CA}" name="الموقع" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{94E5A0D5-9814-4234-BA7B-3D5A14A3E88C}" name="خط العرض" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{94C0F639-1F9A-4DF8-B984-A75F474B3618}" name="خط الطول" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{826168CB-CEA7-4DC5-AAC2-381705B46ED7}" name="نوع الوقود" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1A29CA5E-59E9-4833-ADF6-368410CCF8F3}" name="معلومات إضافية" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -939,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,12 +967,12 @@
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="5" max="6" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +988,11 @@
       <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -981,8 +1000,9 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -998,8 +1018,9 @@
       <c r="E3" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1015,8 +1036,9 @@
       <c r="E4" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1030,8 +1052,9 @@
         <v>46.721899999999998</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1045,9 +1068,10 @@
         <v>46.678400000000003</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1085,9 @@
         <v>46.712200000000003</v>
       </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1076,8 +1101,9 @@
         <v>46.715400000000002</v>
       </c>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1117,9 @@
         <v>46.710099999999997</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1133,9 @@
         <v>46.623100000000001</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1149,9 @@
         <v>46.724699999999999</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1136,8 +1165,9 @@
         <v>46.740099999999998</v>
       </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1181,9 @@
         <v>46.717599999999997</v>
       </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1166,8 +1197,9 @@
         <v>46.7151</v>
       </c>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1181,8 +1213,9 @@
         <v>46.749000000000002</v>
       </c>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1196,8 +1229,9 @@
         <v>46.691600000000001</v>
       </c>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1211,8 +1245,9 @@
         <v>55.960799999999999</v>
       </c>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1261,9 @@
         <v>43.972999999999999</v>
       </c>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1241,8 +1277,9 @@
         <v>46.8416</v>
       </c>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1293,9 @@
         <v>46.811900000000001</v>
       </c>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1271,8 +1309,9 @@
         <v>46.795499999999997</v>
       </c>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1286,8 +1325,9 @@
         <v>46.787799999999997</v>
       </c>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1301,8 +1341,9 @@
         <v>46.773099999999999</v>
       </c>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1316,8 +1357,9 @@
         <v>46.770299999999999</v>
       </c>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1331,8 +1373,9 @@
         <v>46.693600000000004</v>
       </c>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1389,9 @@
         <v>46.674900000000001</v>
       </c>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1361,8 +1405,9 @@
         <v>46.676299999999998</v>
       </c>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1376,8 +1421,9 @@
         <v>46.6768</v>
       </c>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1391,8 +1437,9 @@
         <v>46.6755</v>
       </c>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1406,8 +1453,9 @@
         <v>46.680999999999997</v>
       </c>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1469,9 @@
         <v>46.676900000000003</v>
       </c>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1436,8 +1485,9 @@
         <v>46.6815</v>
       </c>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1451,8 +1501,9 @@
         <v>50.215699999999998</v>
       </c>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1466,8 +1517,9 @@
         <v>50.197099999999999</v>
       </c>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -1481,8 +1533,9 @@
         <v>50.215499999999999</v>
       </c>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -1496,8 +1549,9 @@
         <v>50.1845</v>
       </c>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1511,8 +1565,9 @@
         <v>50.192100000000003</v>
       </c>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1581,9 @@
         <v>50.181800000000003</v>
       </c>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -1541,8 +1597,9 @@
         <v>50.186399999999999</v>
       </c>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
@@ -1556,8 +1613,9 @@
         <v>50.183599999999998</v>
       </c>
       <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1571,8 +1629,9 @@
         <v>50.179699999999997</v>
       </c>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1645,9 @@
         <v>50.182499999999997</v>
       </c>
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
@@ -1601,8 +1661,9 @@
         <v>50.181399999999996</v>
       </c>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1677,9 @@
         <v>50.182000000000002</v>
       </c>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
@@ -1631,8 +1693,9 @@
         <v>50.181899999999999</v>
       </c>
       <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +1709,9 @@
         <v>50.177599999999998</v>
       </c>
       <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
@@ -1661,8 +1725,9 @@
         <v>50.179000000000002</v>
       </c>
       <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
@@ -1676,8 +1741,9 @@
         <v>50.178199999999997</v>
       </c>
       <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -1691,8 +1757,9 @@
         <v>50.1815</v>
       </c>
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1773,9 @@
         <v>50.179499999999997</v>
       </c>
       <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
@@ -1721,8 +1789,9 @@
         <v>50.1755</v>
       </c>
       <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>125</v>
       </c>
@@ -1738,8 +1807,9 @@
       <c r="E52" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>125</v>
       </c>
@@ -1755,8 +1825,9 @@
       <c r="E53" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
@@ -1772,8 +1843,9 @@
       <c r="E54" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>153</v>
       </c>
@@ -1789,8 +1861,9 @@
       <c r="E55" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>125</v>
       </c>
@@ -1806,8 +1879,9 @@
       <c r="E56" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>125</v>
       </c>
@@ -1823,8 +1897,9 @@
       <c r="E57" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>125</v>
       </c>
@@ -1840,8 +1915,9 @@
       <c r="E58" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>152</v>
       </c>
@@ -1857,8 +1933,9 @@
       <c r="E59" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>152</v>
       </c>
@@ -1874,8 +1951,9 @@
       <c r="E60" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>152</v>
       </c>
@@ -1891,8 +1969,9 @@
       <c r="E61" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
@@ -1908,8 +1987,9 @@
       <c r="E62" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
@@ -1925,8 +2005,9 @@
       <c r="E63" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
@@ -1942,8 +2023,9 @@
       <c r="E64" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>125</v>
       </c>
@@ -1959,8 +2041,9 @@
       <c r="E65" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
@@ -1976,8 +2059,9 @@
       <c r="E66" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>125</v>
       </c>
@@ -1993,8 +2077,9 @@
       <c r="E67" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>153</v>
       </c>
@@ -2010,8 +2095,9 @@
       <c r="E68" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>125</v>
       </c>
@@ -2027,8 +2113,9 @@
       <c r="E69" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>153</v>
       </c>
@@ -2044,8 +2131,9 @@
       <c r="E70" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>153</v>
       </c>
@@ -2061,8 +2149,9 @@
       <c r="E71" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>152</v>
       </c>
@@ -2078,8 +2167,9 @@
       <c r="E72" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>125</v>
       </c>
@@ -2095,8 +2185,9 @@
       <c r="E73" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>153</v>
       </c>
@@ -2112,8 +2203,9 @@
       <c r="E74" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>153</v>
       </c>
@@ -2129,8 +2221,9 @@
       <c r="E75" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>152</v>
       </c>
@@ -2146,8 +2239,9 @@
       <c r="E76" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>125</v>
       </c>
@@ -2163,8 +2257,9 @@
       <c r="E77" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>55</v>
       </c>
@@ -2180,8 +2275,11 @@
       <c r="E78" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F78" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>55</v>
       </c>
@@ -2197,8 +2295,9 @@
       <c r="E79" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>55</v>
       </c>
@@ -2214,8 +2313,9 @@
       <c r="E80" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>55</v>
       </c>
@@ -2231,8 +2331,9 @@
       <c r="E81" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>55</v>
       </c>
@@ -2248,8 +2349,9 @@
       <c r="E82" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
@@ -2265,8 +2367,9 @@
       <c r="E83" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
@@ -2282,8 +2385,9 @@
       <c r="E84" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>55</v>
       </c>
@@ -2299,8 +2403,9 @@
       <c r="E85" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>55</v>
       </c>
@@ -2316,8 +2421,9 @@
       <c r="E86" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>55</v>
       </c>
@@ -2333,8 +2439,9 @@
       <c r="E87" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>116</v>
       </c>
@@ -2348,8 +2455,9 @@
         <v>47.099751312827998</v>
       </c>
       <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>67</v>
       </c>
@@ -2363,8 +2471,9 @@
         <v>42.500999999999998</v>
       </c>
       <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>67</v>
       </c>
@@ -2378,8 +2487,9 @@
         <v>42.502000000000002</v>
       </c>
       <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>67</v>
       </c>
@@ -2393,8 +2503,9 @@
         <v>42.505000000000003</v>
       </c>
       <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>67</v>
       </c>
@@ -2408,8 +2519,9 @@
         <v>42.508000000000003</v>
       </c>
       <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>67</v>
       </c>
@@ -2423,8 +2535,9 @@
         <v>42.51</v>
       </c>
       <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>67</v>
       </c>
@@ -2438,8 +2551,9 @@
         <v>42.515000000000001</v>
       </c>
       <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>67</v>
       </c>
@@ -2453,8 +2567,9 @@
         <v>42.52</v>
       </c>
       <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>67</v>
       </c>
@@ -2468,8 +2583,9 @@
         <v>42.524999999999999</v>
       </c>
       <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>67</v>
       </c>
@@ -2483,8 +2599,9 @@
         <v>42.53</v>
       </c>
       <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>67</v>
       </c>
@@ -2498,8 +2615,9 @@
         <v>42.534999999999997</v>
       </c>
       <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>67</v>
       </c>
@@ -2513,8 +2631,9 @@
         <v>42.54</v>
       </c>
       <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>67</v>
       </c>
@@ -2528,8 +2647,9 @@
         <v>42.545000000000002</v>
       </c>
       <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>80</v>
       </c>
@@ -2545,8 +2665,9 @@
       <c r="E101" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>80</v>
       </c>
@@ -2562,8 +2683,9 @@
       <c r="E102" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>80</v>
       </c>
@@ -2579,8 +2701,9 @@
       <c r="E103" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>80</v>
       </c>
@@ -2596,8 +2719,9 @@
       <c r="E104" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>80</v>
       </c>
@@ -2613,8 +2737,9 @@
       <c r="E105" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>80</v>
       </c>
@@ -2630,8 +2755,9 @@
       <c r="E106" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>80</v>
       </c>
@@ -2647,8 +2773,9 @@
       <c r="E107" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>84</v>
       </c>
@@ -2664,8 +2791,9 @@
       <c r="E108" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>84</v>
       </c>
@@ -2681,8 +2809,9 @@
       <c r="E109" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>84</v>
       </c>
@@ -2698,8 +2827,9 @@
       <c r="E110" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>84</v>
       </c>
@@ -2715,8 +2845,9 @@
       <c r="E111" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>84</v>
       </c>
@@ -2732,8 +2863,9 @@
       <c r="E112" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>84</v>
       </c>
@@ -2749,8 +2881,9 @@
       <c r="E113" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>84</v>
       </c>
@@ -2766,8 +2899,9 @@
       <c r="E114" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>84</v>
       </c>
@@ -2783,8 +2917,9 @@
       <c r="E115" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>84</v>
       </c>
@@ -2800,8 +2935,9 @@
       <c r="E116" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>84</v>
       </c>
@@ -2817,8 +2953,9 @@
       <c r="E117" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>84</v>
       </c>
@@ -2834,8 +2971,9 @@
       <c r="E118" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -2849,8 +2987,9 @@
         <v>39.176000000000002</v>
       </c>
       <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -2864,8 +3003,9 @@
         <v>39.174999999999997</v>
       </c>
       <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>96</v>
       </c>
@@ -2879,8 +3019,9 @@
         <v>39.174999999999997</v>
       </c>
       <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>96</v>
       </c>
@@ -2894,8 +3035,9 @@
         <v>39.18</v>
       </c>
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>96</v>
       </c>
@@ -2909,8 +3051,9 @@
         <v>39.185000000000002</v>
       </c>
       <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>96</v>
       </c>
@@ -2924,8 +3067,9 @@
         <v>39.19</v>
       </c>
       <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>96</v>
       </c>
@@ -2939,8 +3083,9 @@
         <v>39.195</v>
       </c>
       <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>104</v>
       </c>
@@ -2954,8 +3099,9 @@
         <v>39.195</v>
       </c>
       <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>104</v>
       </c>
@@ -2969,8 +3115,9 @@
         <v>39.200000000000003</v>
       </c>
       <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>107</v>
       </c>
@@ -2984,8 +3131,9 @@
         <v>41.765000000000001</v>
       </c>
       <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>107</v>
       </c>
@@ -2999,8 +3147,9 @@
         <v>41.77</v>
       </c>
       <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>110</v>
       </c>
@@ -3014,8 +3163,9 @@
         <v>40.514000000000003</v>
       </c>
       <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>110</v>
       </c>
@@ -3029,8 +3179,9 @@
         <v>40.520000000000003</v>
       </c>
       <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>110</v>
       </c>
@@ -3044,8 +3195,9 @@
         <v>40.524999999999999</v>
       </c>
       <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>110</v>
       </c>
@@ -3059,8 +3211,9 @@
         <v>40.53</v>
       </c>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>110</v>
       </c>
@@ -3074,6 +3227,7 @@
         <v>40.534999999999997</v>
       </c>
       <c r="E134" s="3"/>
+      <c r="F134" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
